--- a/表的对应关系.xlsx
+++ b/表的对应关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a_数据库练习项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E57C52-0417-4964-86E0-A83EAF68C57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A152557-4986-46BA-B67B-CB5EF4077247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD989246-37DD-4145-9D60-B17F843A8631}"/>
   </bookViews>
@@ -36,20 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lessons</t>
-  </si>
-  <si>
-    <t>course_student</t>
-  </si>
-  <si>
     <t>teacher_id = users.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,29 +48,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orders</t>
-  </si>
-  <si>
     <t>user_id = users.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>learning_progress</t>
-  </si>
-  <si>
     <t>lesson_id = lesson.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>exams</t>
-  </si>
-  <si>
-    <t>exam_results</t>
-  </si>
-  <si>
     <t>exam_id = exam.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +85,42 @@
   </si>
   <si>
     <t>users与lesson的中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users（用户表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courses（课程表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessons（章节表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_student（学生选课）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders（订单表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning_progress（学习进度表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments（评论表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exams（考试表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam_results（考试成绩表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,16 +497,16 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -507,105 +514,105 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="H6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
